--- a/document/Schedule_QLTV.xlsx
+++ b/document/Schedule_QLTV.xlsx
@@ -233,11 +233,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="d/m/yyyy"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="d/m/yyyy"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -275,8 +275,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,8 +305,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,6 +318,36 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -320,40 +367,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -366,6 +396,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -381,39 +412,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,25 +470,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,7 +494,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,7 +536,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,13 +572,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,97 +638,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1455,16 +1455,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1474,6 +1485,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1502,28 +1528,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1536,31 +1551,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1572,134 +1572,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="65" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="64" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="62" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="63" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="68" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="61" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="63" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="66" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="67" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="62" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="65" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="64" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="67" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="61" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="68" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="62" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="63" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="61" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="67" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="66" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1740,8 +1740,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1756,11 +1756,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1954,9 +1954,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="56" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
@@ -2292,7 +2289,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -2327,7 +2324,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="15.15" spans="1:7">
+    <row r="2" spans="1:7">
       <c r="A2" s="166">
         <v>1</v>
       </c>
@@ -2348,7 +2345,7 @@
         <v>10</v>
       </c>
       <c r="G2" s="170">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2444,33 +2441,33 @@
         <f>SUM(Details!D23:D42)</f>
         <v>26</v>
       </c>
-      <c r="D7" s="178" t="s">
+      <c r="D7" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="178" t="s">
+      <c r="E7" s="176" t="s">
         <v>22</v>
       </c>
       <c r="F7" s="175" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="177">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" ht="15.15" spans="1:7">
-      <c r="A8" s="179">
+      <c r="A8" s="178">
         <v>7</v>
       </c>
-      <c r="B8" s="180" t="s">
+      <c r="B8" s="179" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="181"/>
-      <c r="D8" s="182"/>
-      <c r="E8" s="182"/>
-      <c r="F8" s="181" t="s">
+      <c r="C8" s="180"/>
+      <c r="D8" s="181"/>
+      <c r="E8" s="181"/>
+      <c r="F8" s="180" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="183"/>
+      <c r="G8" s="182"/>
     </row>
     <row r="9" ht="15.15"/>
   </sheetData>
@@ -2485,7 +2482,7 @@
   <dimension ref="A1:CI130"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AU64" sqref="AU$1:AU$1048576"/>
+      <selection activeCell="AU64" sqref="AA$1:BD$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="14.4"/>
@@ -14934,7 +14931,7 @@
       <c r="C3" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="184" t="s">
+      <c r="D3" s="183" t="s">
         <v>65</v>
       </c>
     </row>
